--- a/FakeProject/design/excel/sign_config.xlsx
+++ b/FakeProject/design/excel/sign_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,17 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Jason:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Jason:
 1.金币
 2.皮肤
-3.武器</t>
+3.武器
+4.宠物
+5.技能
+</t>
         </r>
       </text>
     </comment>
@@ -145,16 +139,24 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,92 +168,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +207,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -273,6 +243,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -280,6 +259,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,19 +296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -322,13 +310,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,169 +418,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,69 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -597,8 +522,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1118,7 +1106,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/FakeProject/design/excel/sign_config.xlsx
+++ b/FakeProject/design/excel/sign_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
           <t xml:space="preserve">Jason:
 1.金币
 2.皮肤
-3.武器
-4.宠物
-5.技能
 </t>
         </r>
       </text>
@@ -44,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>签到天数</t>
   </si>
@@ -97,40 +94,19 @@
     <t>ad_reward_value</t>
   </si>
   <si>
-    <t>一包钞票</t>
-  </si>
-  <si>
-    <t>ui://c6t3i6k8ttx33k</t>
-  </si>
-  <si>
-    <t>绝版武器</t>
-  </si>
-  <si>
-    <t>ui://9pt95ndub7ilr</t>
-  </si>
-  <si>
-    <t>绝版皮肤2</t>
-  </si>
-  <si>
-    <t>ui://9pt95ndutd353</t>
-  </si>
-  <si>
-    <t>大包钞票</t>
-  </si>
-  <si>
-    <t>绝版皮肤3</t>
-  </si>
-  <si>
-    <t>ui://9pt95ndutd352</t>
-  </si>
-  <si>
-    <t>大箱钞票</t>
-  </si>
-  <si>
-    <t>绝版皮肤4</t>
-  </si>
-  <si>
-    <t>ui://9pt95ndutd351</t>
+    <t>ui://hbq27te3fig09w</t>
+  </si>
+  <si>
+    <t>皮肤</t>
+  </si>
+  <si>
+    <t>ui://hbq27te3fig0aa</t>
+  </si>
+  <si>
+    <t>绝版皮肤</t>
+  </si>
+  <si>
+    <t>ui://hbq27te3fig09y</t>
   </si>
 </sst>
 </file>
@@ -140,8 +116,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -152,9 +128,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,11 +172,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,17 +227,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,13 +249,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -221,54 +257,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,21 +267,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,43 +286,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,133 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,30 +477,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,6 +491,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,15 +545,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -601,6 +553,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1106,7 +1082,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1192,23 +1168,23 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1216,114 +1192,114 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
+      <c r="B6">
+        <v>300</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
+      <c r="B7">
+        <v>500</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
+      <c r="B8">
+        <v>800</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>800</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
+      <c r="B9">
+        <v>1600</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>10000</v>
+        <v>1600</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1331,22 +1307,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/FakeProject/design/excel/sign_config.xlsx
+++ b/FakeProject/design/excel/sign_config.xlsx
@@ -30,8 +30,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Jason:
-1.金币
-2.皮肤
+0.金币
+1.皮肤
 </t>
         </r>
       </text>
@@ -49,10 +49,13 @@
     <t>展示文字</t>
   </si>
   <si>
-    <t>展示图标</t>
-  </si>
-  <si>
-    <t>实际奖励内容</t>
+    <t>展示图标
+第2天和7天的图标为整体切图</t>
+  </si>
+  <si>
+    <t>实际奖励内容
+0.金币
+1.皮肤</t>
   </si>
   <si>
     <t>实际奖励值</t>
@@ -114,8 +117,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -128,21 +131,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -150,17 +154,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,16 +208,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,14 +237,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -212,54 +255,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,187 +289,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,6 +480,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,15 +518,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,17 +537,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,15 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -585,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,139 +600,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1082,30 +1088,30 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="21.25" customWidth="1"/>
     <col min="7" max="7" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="40.5" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1175,13 +1181,13 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -1198,13 +1204,13 @@
         <v>19</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>200</v>
@@ -1221,13 +1227,13 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>300</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>300</v>
@@ -1244,13 +1250,13 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>500</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>500</v>
@@ -1267,13 +1273,13 @@
         <v>17</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>800</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>800</v>
@@ -1290,13 +1296,13 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1600</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>1600</v>
@@ -1313,13 +1319,13 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>2000</v>
